--- a/Таблица состояний игрока.xlsx
+++ b/Таблица состояний игрока.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="12">
   <si>
     <t>Idle,
         /// &lt;summary&gt;Идет в лево &lt;/summary&gt;
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>IdleLeft</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Drop Bomd</t>
   </si>
 </sst>
 </file>
@@ -101,7 +107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -189,40 +195,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -528,208 +554,243 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="258.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G5" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="G6" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="F12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="F13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="9"/>
+      <c r="G13" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Таблица состояний игрока.xlsx
+++ b/Таблица состояний игрока.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="11">
   <si>
     <t>Idle,
         /// &lt;summary&gt;Идет в лево &lt;/summary&gt;
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Fire</t>
-  </si>
-  <si>
-    <t>Drop Bomd</t>
   </si>
 </sst>
 </file>
@@ -107,7 +104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -195,31 +192,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,10 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -552,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J13"/>
+  <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,8 +601,8 @@
       <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>11</v>
+      <c r="G6" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -651,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -673,8 +647,8 @@
       <c r="F8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>11</v>
+      <c r="G8" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -696,8 +670,8 @@
       <c r="F9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>4</v>
+      <c r="G9" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -719,8 +693,8 @@
       <c r="F10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>11</v>
+      <c r="G10" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -743,7 +717,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -765,8 +739,8 @@
       <c r="F12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>11</v>
+      <c r="G12" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -788,8 +762,31 @@
       <c r="F13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>8</v>
+      <c r="G13" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Таблица состояний игрока.xlsx
+++ b/Таблица состояний игрока.xlsx
@@ -16,26 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="11">
-  <si>
-    <t>Idle,
-        /// &lt;summary&gt;Идет в лево &lt;/summary&gt;
-        WalkLeft,
-        /// &lt;summary&gt;Идет в право&lt;/summary&gt;
-        WalkRight,
-        /// &lt;summary&gt;Идет вверх &lt;/summary&gt;
-        WalkUp,
-        /// &lt;summary&gt;Идет вниз&lt;/summary&gt;
-        WalkDown,
-        /// &lt;summary&gt;Стоит развернут в лево &lt;/summary&gt;
-        IdleLeft,
-        /// &lt;summary&gt;Стоит развернут в право&lt;/summary&gt;
-        IdleRight,
-        /// &lt;summary&gt;Стоит развернут в вверх &lt;/summary&gt;
-        IdleUp,
-        /// &lt;summary&gt;Горит, подорвался на бомбе&lt;/summary&gt;
-        Fire,</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="10">
   <si>
     <t>Idle</t>
   </si>
@@ -196,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -218,9 +199,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -526,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J14"/>
+  <dimension ref="A2:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,251 +526,245 @@
     <col min="12" max="12" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="258.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="G11" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:J2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Таблица состояний игрока.xlsx
+++ b/Таблица состояний игрока.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="11">
   <si>
     <t>Idle</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Fire</t>
+  </si>
+  <si>
+    <t>Dead</t>
   </si>
 </sst>
 </file>
@@ -85,7 +88,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -124,14 +127,102 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -141,7 +232,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -155,7 +248,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -167,8 +260,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -177,30 +272,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -504,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G25"/>
+  <dimension ref="A2:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,235 +639,290 @@
     <col min="12" max="12" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="G4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="G7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="G8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="G9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="G10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="G11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25"/>
